--- a/test_data/account_userLogin_test_data.xlsx
+++ b/test_data/account_userLogin_test_data.xlsx
@@ -1,114 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectedresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15210110149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不能为空!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不能为空!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12dasd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>testDescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、只传递params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'headers':{'token':token},'params':{ 'password': '','mobile': ''}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>params</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'params':{ 'mobile': mobile,'password': password}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectedresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15210110149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15801006286</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号不能为空!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不能为空!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12dasd3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>account/userLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApiName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestMethod</t>
+    <t>account/userLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>testDescribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、只传递params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'token':''}</t>
+  </si>
+  <si>
+    <t>{'headers':{'token':token},'params':{ 'password': '%s','mobile': '%s'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆手机号不能为空!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码不能为空!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码错误!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,10 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
@@ -488,38 +529,38 @@
     <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -535,99 +576,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+      <c r="J5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
